--- a/excel_files/10.5.1.1.xlsx
+++ b/excel_files/10.5.1.1.xlsx
@@ -1,5 +1,514 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="122211"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>10.5.1.1 Каржылык туруктуулук көрсөткүчтөрү*</t>
+  </si>
+  <si>
+    <t>10.5.1.1 Показатели финансовой устойчивости*</t>
+  </si>
+  <si>
+    <t>10.5.1.1 Financial Soundness Indicators*</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
+  </si>
+  <si>
+    <t>Көрсөткүчтөрдүн аталышы</t>
+  </si>
+  <si>
+    <t>Наименование показателей</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>ИДП/активдер</t>
+  </si>
+  <si>
+    <t>Активы/ВВП</t>
+  </si>
+  <si>
+    <t>Assets/GDP</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>ИДП</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/депозиттер</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Депозиты/ВВП</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Deposits/GDP</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ИДП</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/насыялар</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Кредиты/ВВП</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Loans/GDP</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/2</t>
+    </r>
+  </si>
+  <si>
+    <t>*КРУБ маалыматтары боюнча</t>
+  </si>
+  <si>
+    <t>*по данным НБКР</t>
+  </si>
+  <si>
+    <t>*according to the NBKR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> банктардын депозиттерин эсепке албаганда</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>без учета депозитов банков</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> excluding bank deposits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> банктардын жана башка каржы-кредиттик мекемелер кредиттерди эске албаганда</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> без учета кредитов, предоставленных банкам и другим финансово-кредитным организациям</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> excluding loans granted to banks and other financial and credit organizations</t>
+    </r>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman CYR"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
@@ -10,39 +519,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -121,145 +630,541 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2007</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2008</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2009</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2010</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2011</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2012</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2013</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2014</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2015</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2016</v>
+      </c>
+      <c r="N4" s="8">
+        <v>2017</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2018</v>
+      </c>
+      <c r="P4" s="8">
+        <v>2019</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12">
+        <v>29.2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>36.6</v>
+      </c>
+      <c r="G5" s="12">
+        <v>27.6</v>
+      </c>
+      <c r="H5" s="12">
+        <v>23.6</v>
+      </c>
+      <c r="I5" s="12">
+        <v>28.2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>31.3</v>
+      </c>
+      <c r="K5" s="12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="L5" s="12">
+        <v>41.4</v>
+      </c>
+      <c r="M5" s="12">
+        <v>37.4</v>
+      </c>
+      <c r="N5" s="12">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="O5" s="12">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="P5" s="12">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12">
+        <v>16.5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>15.7</v>
+      </c>
+      <c r="F6" s="12">
+        <v>19.7</v>
+      </c>
+      <c r="G6" s="12">
+        <v>15.5</v>
+      </c>
+      <c r="H6" s="12">
+        <v>13.5</v>
+      </c>
+      <c r="I6" s="12">
+        <v>16.3</v>
+      </c>
+      <c r="J6" s="12">
+        <v>19</v>
+      </c>
+      <c r="K6" s="12">
+        <v>20.6</v>
+      </c>
+      <c r="L6" s="12">
+        <v>23.9</v>
+      </c>
+      <c r="M6" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="N6" s="12">
+        <v>22.9</v>
+      </c>
+      <c r="O6" s="12">
+        <v>23.9</v>
+      </c>
+      <c r="P6" s="12">
+        <v>24.4</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14">
+        <v>14.7</v>
+      </c>
+      <c r="E7" s="14">
+        <v>13.6</v>
+      </c>
+      <c r="F7" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="G7" s="14">
+        <v>12</v>
+      </c>
+      <c r="H7" s="14">
+        <v>10.9</v>
+      </c>
+      <c r="I7" s="14">
+        <v>12.9</v>
+      </c>
+      <c r="J7" s="14">
+        <v>15.2</v>
+      </c>
+      <c r="K7" s="14">
+        <v>19.7</v>
+      </c>
+      <c r="L7" s="14">
+        <v>21.8</v>
+      </c>
+      <c r="M7" s="14">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="N7" s="14">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="O7" s="14">
+        <v>23</v>
+      </c>
+      <c r="P7" s="14">
+        <v>23.7</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_files/10.5.1.1.xlsx
+++ b/excel_files/10.5.1.1.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>10.5.1.1 Каржылык туруктуулук көрсөткүчтөрү*</t>
-  </si>
-  <si>
     <t>10.5.1.1 Показатели финансовой устойчивости*</t>
   </si>
   <si>
@@ -316,6 +313,9 @@
       </rPr>
       <t xml:space="preserve"> excluding loans granted to banks and other financial and credit organizations</t>
     </r>
+  </si>
+  <si>
+    <t>10.5.1.1 Финансылык туруктуулуктун көрсөткүчтөрү</t>
   </si>
 </sst>
 </file>
@@ -444,11 +444,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -489,6 +486,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,363 +813,376 @@
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2007</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2009</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2010</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2011</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2012</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2013</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2014</v>
+      </c>
+      <c r="L4" s="8">
+        <v>2015</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2016</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2017</v>
+      </c>
+      <c r="O4" s="7">
+        <v>2018</v>
+      </c>
+      <c r="P4" s="7">
+        <v>2019</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>2020</v>
+      </c>
+      <c r="R4" s="15">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11">
+        <v>29.2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>36.6</v>
+      </c>
+      <c r="G5" s="11">
+        <v>27.6</v>
+      </c>
+      <c r="H5" s="11">
+        <v>23.6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>28.2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>31.3</v>
+      </c>
+      <c r="K5" s="11">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="L5" s="11">
+        <v>41.4</v>
+      </c>
+      <c r="M5" s="11">
+        <v>37.4</v>
+      </c>
+      <c r="N5" s="11">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="O5" s="11">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="P5" s="11">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>48.3</v>
+      </c>
+      <c r="R5" s="16">
+        <v>49.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2007</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2008</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2009</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2010</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2011</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2012</v>
-      </c>
-      <c r="J4" s="9">
-        <v>2013</v>
-      </c>
-      <c r="K4" s="9">
-        <v>2014</v>
-      </c>
-      <c r="L4" s="9">
-        <v>2015</v>
-      </c>
-      <c r="M4" s="8">
-        <v>2016</v>
-      </c>
-      <c r="N4" s="8">
-        <v>2017</v>
-      </c>
-      <c r="O4" s="8">
-        <v>2018</v>
-      </c>
-      <c r="P4" s="8">
-        <v>2019</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>2020</v>
+    <row r="6" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>15.7</v>
+      </c>
+      <c r="F6" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="G6" s="11">
+        <v>15.5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="I6" s="11">
+        <v>16.3</v>
+      </c>
+      <c r="J6" s="11">
+        <v>19</v>
+      </c>
+      <c r="K6" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="L6" s="11">
+        <v>23.9</v>
+      </c>
+      <c r="M6" s="11">
+        <v>22.5</v>
+      </c>
+      <c r="N6" s="11">
+        <v>22.9</v>
+      </c>
+      <c r="O6" s="11">
+        <v>23.9</v>
+      </c>
+      <c r="P6" s="11">
+        <v>24.4</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>30.2</v>
+      </c>
+      <c r="R6" s="16">
+        <v>33.6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13">
+        <v>14.7</v>
+      </c>
+      <c r="E7" s="13">
+        <v>13.6</v>
+      </c>
+      <c r="F7" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="G7" s="13">
         <v>12</v>
       </c>
-      <c r="E5" s="12">
-        <v>29.2</v>
-      </c>
-      <c r="F5" s="12">
-        <v>36.6</v>
-      </c>
-      <c r="G5" s="12">
-        <v>27.6</v>
-      </c>
-      <c r="H5" s="12">
-        <v>23.6</v>
-      </c>
-      <c r="I5" s="12">
-        <v>28.2</v>
-      </c>
-      <c r="J5" s="12">
-        <v>31.3</v>
-      </c>
-      <c r="K5" s="12">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="L5" s="12">
-        <v>41.4</v>
-      </c>
-      <c r="M5" s="12">
-        <v>37.4</v>
-      </c>
-      <c r="N5" s="12">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="O5" s="12">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="P5" s="12">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>48.3</v>
+      <c r="H7" s="13">
+        <v>10.9</v>
+      </c>
+      <c r="I7" s="13">
+        <v>12.9</v>
+      </c>
+      <c r="J7" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="K7" s="13">
+        <v>19.7</v>
+      </c>
+      <c r="L7" s="13">
+        <v>21.8</v>
+      </c>
+      <c r="M7" s="13">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="N7" s="13">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="O7" s="13">
+        <v>23</v>
+      </c>
+      <c r="P7" s="13">
+        <v>23.7</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>27.2</v>
+      </c>
+      <c r="R7" s="17">
+        <v>25.1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="12">
-        <v>16.5</v>
-      </c>
-      <c r="E6" s="12">
-        <v>15.7</v>
-      </c>
-      <c r="F6" s="12">
-        <v>19.7</v>
-      </c>
-      <c r="G6" s="12">
-        <v>15.5</v>
-      </c>
-      <c r="H6" s="12">
-        <v>13.5</v>
-      </c>
-      <c r="I6" s="12">
-        <v>16.3</v>
-      </c>
-      <c r="J6" s="12">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="12">
-        <v>20.6</v>
-      </c>
-      <c r="L6" s="12">
-        <v>23.9</v>
-      </c>
-      <c r="M6" s="12">
-        <v>22.5</v>
-      </c>
-      <c r="N6" s="12">
-        <v>22.9</v>
-      </c>
-      <c r="O6" s="12">
-        <v>23.9</v>
-      </c>
-      <c r="P6" s="12">
-        <v>24.4</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>30.2</v>
-      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="14">
-        <v>14.7</v>
-      </c>
-      <c r="E7" s="14">
-        <v>13.6</v>
-      </c>
-      <c r="F7" s="14">
-        <v>12.5</v>
-      </c>
-      <c r="G7" s="14">
-        <v>12</v>
-      </c>
-      <c r="H7" s="14">
-        <v>10.9</v>
-      </c>
-      <c r="I7" s="14">
-        <v>12.9</v>
-      </c>
-      <c r="J7" s="14">
-        <v>15.2</v>
-      </c>
-      <c r="K7" s="14">
-        <v>19.7</v>
-      </c>
-      <c r="L7" s="14">
-        <v>21.8</v>
-      </c>
-      <c r="M7" s="14">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="N7" s="14">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="O7" s="14">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="14">
-        <v>23.7</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>27.2</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="10" t="s">
+    <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel_files/10.5.1.1.xlsx
+++ b/excel_files/10.5.1.1.xlsx
@@ -444,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -488,11 +488,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -800,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,8 +808,8 @@
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -838,7 +833,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -863,7 +858,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -882,7 +877,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -934,11 +929,14 @@
       <c r="Q4" s="7">
         <v>2020</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="7">
         <v>2021</v>
       </c>
+      <c r="S4" s="7">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -990,11 +988,14 @@
       <c r="Q5" s="11">
         <v>48.3</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="11">
         <v>49.9</v>
       </c>
+      <c r="S5" s="11">
+        <v>49.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1046,11 +1047,14 @@
       <c r="Q6" s="11">
         <v>30.2</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="11">
         <v>33.6</v>
       </c>
+      <c r="S6" s="11">
+        <v>34.9</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1102,11 +1106,14 @@
       <c r="Q7" s="13">
         <v>27.2</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="13">
         <v>25.1</v>
       </c>
+      <c r="S7" s="13">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1131,7 +1138,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1163,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>24</v>
       </c>

--- a/excel_files/10.5.1.1.xlsx
+++ b/excel_files/10.5.1.1.xlsx
@@ -177,10 +177,13 @@
     <t>*according to the NBKR</t>
   </si>
   <si>
+    <t>10.5.1.1 Финансылык туруктуулуктун көрсөткүчтөрү</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -190,7 +193,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -203,7 +206,7 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -213,7 +216,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -226,7 +229,7 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -236,7 +239,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -249,7 +252,7 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -259,7 +262,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -272,7 +275,7 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -282,7 +285,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -295,7 +298,7 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -305,7 +308,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -313,9 +316,6 @@
       </rPr>
       <t xml:space="preserve"> excluding loans granted to banks and other financial and credit organizations</t>
     </r>
-  </si>
-  <si>
-    <t>10.5.1.1 Финансылык туруктуулуктун көрсөткүчтөрү</t>
   </si>
 </sst>
 </file>
@@ -325,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +401,28 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -444,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -485,10 +507,16 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,24 +823,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="1" max="3" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -833,7 +857,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -858,7 +882,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -877,7 +901,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -935,8 +959,11 @@
       <c r="S4" s="7">
         <v>2022</v>
       </c>
+      <c r="T4" s="7">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -994,8 +1021,11 @@
       <c r="S5" s="11">
         <v>49.7</v>
       </c>
+      <c r="T5" s="11">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1053,8 +1083,11 @@
       <c r="S6" s="11">
         <v>34.9</v>
       </c>
+      <c r="T6" s="11">
+        <v>35.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1112,15 +1145,18 @@
       <c r="S7" s="13">
         <v>21</v>
       </c>
+      <c r="T7" s="13">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2"/>
@@ -1138,15 +1174,15 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="16" t="s">
         <v>23</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1163,15 +1199,15 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>26</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
